--- a/classification/droptc/message/bert-base-uncased/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/freeze/43782163/prediction.xlsx
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2854,12 +2854,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/bert-base-uncased/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/freeze/43782163/prediction.xlsx
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
